--- a/Dataset/Red Light Camera data features - evaluated.xlsx
+++ b/Dataset/Red Light Camera data features - evaluated.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpggpc-my.sharepoint.com/personal/bardhonia_harding_innovapost_com/Documents/Documents/Analytics/module 20/Crash-Detectives/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{29013F3B-D6E6-4A6D-8031-87D1C04F413B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{29013F3B-D6E6-4A6D-8031-87D1C04F413B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0F7FBFF-3D59-4B7D-8EEB-AD99571A9E41}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1335" windowWidth="8580" windowHeight="13245"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Red Light Camera data features" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>Column</t>
   </si>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1074,11 +1074,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,9 +1110,7 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1474,13 +1472,13 @@
       <c r="D33" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C33"/>
+  <autoFilter ref="A1:C33" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Dataset/Red Light Camera data features - evaluated.xlsx
+++ b/Dataset/Red Light Camera data features - evaluated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpggpc-my.sharepoint.com/personal/bardhonia_harding_innovapost_com/Documents/Documents/Analytics/module 20/Crash-Detectives/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{29013F3B-D6E6-4A6D-8031-87D1C04F413B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0F7FBFF-3D59-4B7D-8EEB-AD99571A9E41}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:40009_{29013F3B-D6E6-4A6D-8031-87D1C04F413B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31492BBA-9EF9-40F4-9FE4-2881E4F4B46D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Red Light Camera data features'!$A$1:$C$33</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t>Column</t>
   </si>
@@ -705,7 +705,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -720,6 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1078,7 +1079,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1111,9 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1373,10 +1376,12 @@
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1431,7 +1436,7 @@
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="2"/>

--- a/Dataset/Red Light Camera data features - evaluated.xlsx
+++ b/Dataset/Red Light Camera data features - evaluated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpggpc-my.sharepoint.com/personal/bardhonia_harding_innovapost_com/Documents/Documents/Analytics/module 20/Crash-Detectives/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:40009_{29013F3B-D6E6-4A6D-8031-87D1C04F413B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31492BBA-9EF9-40F4-9FE4-2881E4F4B46D}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:40009_{29013F3B-D6E6-4A6D-8031-87D1C04F413B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{334CB756-CEB0-407A-A756-09A7EC0155DC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16110" yWindow="975" windowWidth="13515" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Red Light Camera data features" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
   <si>
     <t>Column</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>Need to split this string to extract Lat/Long example, {"type": "Point", "coordinates": [-79.40215463, 43.72510266]}</t>
+  </si>
+  <si>
+    <t>Camera ID</t>
+  </si>
+  <si>
+    <t>Has null values.  Not required.  RLC column as unique id for red light camera</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1085,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,15 +1122,19 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1456,12 +1466,10 @@
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
